--- a/exposan/bwaise/data/impact_items.xlsx
+++ b/exposan/bwaise/data/impact_items.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="149" documentId="8_{935E0A0B-8DD3-6742-99D3-41177F9390EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F758A6B2-FD7F-064F-9447-6CE3BF795FB8}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="460" windowWidth="27240" windowHeight="16060" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="1560" yWindow="460" windowWidth="27240" windowHeight="16060" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28627DAA-889C-6942-A3B5-3C8A993554C1}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
